--- a/General Recipes.xlsx
+++ b/General Recipes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="584">
   <si>
     <t>Recursos Primarios</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Spacecraft Components</t>
   </si>
   <si>
-    <t>Machine Name</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -608,6 +605,1179 @@
   </si>
   <si>
     <t>Hugo</t>
+  </si>
+  <si>
+    <t>Lotte</t>
+  </si>
+  <si>
+    <t>Lore</t>
+  </si>
+  <si>
+    <t>Amber</t>
+  </si>
+  <si>
+    <t>Hanne</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Wout</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Daan</t>
+  </si>
+  <si>
+    <t>Senne</t>
+  </si>
+  <si>
+    <t>Robbe</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Kobe</t>
+  </si>
+  <si>
+    <t>Jasper</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>Lucie</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Chloé</t>
+  </si>
+  <si>
+    <t>Zoé</t>
+  </si>
+  <si>
+    <t>Théo</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Júlia</t>
+  </si>
+  <si>
+    <t>Letícia</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Giovanna</t>
+  </si>
+  <si>
+    <t>Yasmin</t>
+  </si>
+  <si>
+    <t>Beatriz</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Larissa</t>
+  </si>
+  <si>
+    <t>João</t>
+  </si>
+  <si>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>Vinícius</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Hailey</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Constanza</t>
+  </si>
+  <si>
+    <t>Catalina</t>
+  </si>
+  <si>
+    <t>Javiera</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Isidora</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Benjamín</t>
+  </si>
+  <si>
+    <t>Vicente</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t>Sebastían</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Cristóbal</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Lenka</t>
+  </si>
+  <si>
+    <t>Katerina</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Markéta</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Thomáš</t>
+  </si>
+  <si>
+    <t>Lukáš</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Mette</t>
+  </si>
+  <si>
+    <t>Helle</t>
+  </si>
+  <si>
+    <t>Susanne</t>
+  </si>
+  <si>
+    <t>Lene</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Inge</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Henrik</t>
+  </si>
+  <si>
+    <t>Soren</t>
+  </si>
+  <si>
+    <t>Niels</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Jorgen</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Alfie</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Aino</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
+    <t>Helmi</t>
+  </si>
+  <si>
+    <t>Ilona</t>
+  </si>
+  <si>
+    <t>Juhani</t>
+  </si>
+  <si>
+    <t>Johannes</t>
+  </si>
+  <si>
+    <t>Mikael</t>
+  </si>
+  <si>
+    <t>Matias</t>
+  </si>
+  <si>
+    <t>Onni</t>
+  </si>
+  <si>
+    <t>Olavi</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Oskari</t>
+  </si>
+  <si>
+    <t>Ilmari</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Louanne</t>
+  </si>
+  <si>
+    <t>Maëlys</t>
+  </si>
+  <si>
+    <t>Inès</t>
+  </si>
+  <si>
+    <t>Océane</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>Mathéo</t>
+  </si>
+  <si>
+    <t>Enzo</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>Kilian</t>
+  </si>
+  <si>
+    <t>Raphaël</t>
+  </si>
+  <si>
+    <t>Sofie</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Boglárka</t>
+  </si>
+  <si>
+    <t>Réka</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Zsófia</t>
+  </si>
+  <si>
+    <t>Lili</t>
+  </si>
+  <si>
+    <t>Viktória</t>
+  </si>
+  <si>
+    <t>Eszter</t>
+  </si>
+  <si>
+    <t>Bence</t>
+  </si>
+  <si>
+    <t>Máté</t>
+  </si>
+  <si>
+    <t>Levente</t>
+  </si>
+  <si>
+    <t>Dávid</t>
+  </si>
+  <si>
+    <t>Balázs</t>
+  </si>
+  <si>
+    <t>Dániel</t>
+  </si>
+  <si>
+    <t>Ádám</t>
+  </si>
+  <si>
+    <t>Péter</t>
+  </si>
+  <si>
+    <t>Bálint</t>
+  </si>
+  <si>
+    <t>Tamás</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Aoife</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Conor</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Cian</t>
+  </si>
+  <si>
+    <t>Lillie</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Bem</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>Chiara</t>
+  </si>
+  <si>
+    <t>Alessia</t>
+  </si>
+  <si>
+    <t>Giorgia</t>
+  </si>
+  <si>
+    <t>Giada</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Matteo</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>Davide</t>
+  </si>
+  <si>
+    <t>Matas</t>
+  </si>
+  <si>
+    <t>Nojus</t>
+  </si>
+  <si>
+    <t>Dovvdas</t>
+  </si>
+  <si>
+    <t>Kajus</t>
+  </si>
+  <si>
+    <t>Rokas</t>
+  </si>
+  <si>
+    <t>Dominvkas</t>
+  </si>
+  <si>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Ignas</t>
+  </si>
+  <si>
+    <t>Arnas</t>
+  </si>
+  <si>
+    <t>Marja</t>
+  </si>
+  <si>
+    <t>Biljana</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Vesna</t>
+  </si>
+  <si>
+    <t>Snezana</t>
+  </si>
+  <si>
+    <t>Violeta</t>
+  </si>
+  <si>
+    <t>Aleksandra</t>
+  </si>
+  <si>
+    <t>Suzana</t>
+  </si>
+  <si>
+    <t>Ljubica</t>
+  </si>
+  <si>
+    <t>Aleksandar</t>
+  </si>
+  <si>
+    <t>Zoran</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Goran</t>
+  </si>
+  <si>
+    <t>Dragan</t>
+  </si>
+  <si>
+    <t>Dejan</t>
+  </si>
+  <si>
+    <t>Ilija</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>Ljupco</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+  </si>
+  <si>
+    <t>Michela</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Kieran</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Maria Fernanda</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Ximena</t>
+  </si>
+  <si>
+    <t>Maria Guadalupe</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Maria Jose</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Luis Angel</t>
+  </si>
+  <si>
+    <t>Emiliano</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Sanne</t>
+  </si>
+  <si>
+    <t>Lieke</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>Sem</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Thijs</t>
+  </si>
+  <si>
+    <t>Stijn</t>
+  </si>
+  <si>
+    <t>Ellie</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Thea</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>Ida</t>
+  </si>
+  <si>
+    <t>Emilie</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Katarzyna</t>
+  </si>
+  <si>
+    <t>Malgorzata</t>
+  </si>
+  <si>
+    <t>Agnieszka</t>
+  </si>
+  <si>
+    <t>Krystyna</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Ewa</t>
+  </si>
+  <si>
+    <t>Elzbieta</t>
+  </si>
+  <si>
+    <t>Zofia</t>
+  </si>
+  <si>
+    <t>Andrezj</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>Stanislaw</t>
+  </si>
+  <si>
+    <t>Tomasz</t>
+  </si>
+  <si>
+    <t>Pawel</t>
+  </si>
+  <si>
+    <t>Józef</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Anastasiya</t>
+  </si>
+  <si>
+    <t>Mariya</t>
+  </si>
+  <si>
+    <t>Dariya</t>
+  </si>
+  <si>
+    <t>Inna</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>Yekaterina</t>
+  </si>
+  <si>
+    <t>Ksenia</t>
+  </si>
+  <si>
+    <t>Viktoria</t>
+  </si>
+  <si>
+    <t>Yelizaveta</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>Artyom</t>
+  </si>
+  <si>
+    <t>Mikhail</t>
+  </si>
+  <si>
+    <t>Nikita</t>
+  </si>
+  <si>
+    <t>Danil</t>
+  </si>
+  <si>
+    <t>Yegor</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Alexei</t>
+  </si>
+  <si>
+    <t>Ana-Maria</t>
+  </si>
+  <si>
+    <t>Andreea</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Maria Alexandra</t>
+  </si>
+  <si>
+    <t>Denisa</t>
+  </si>
+  <si>
+    <t>Bianca Maria</t>
+  </si>
+  <si>
+    <t>Georgiana</t>
+  </si>
+  <si>
+    <t>Andrei</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Mihai</t>
+  </si>
+  <si>
+    <t>Ionut</t>
+  </si>
+  <si>
+    <t>Florin</t>
+  </si>
+  <si>
+    <t>Matei</t>
+  </si>
+  <si>
+    <t>Callum</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Milica</t>
+  </si>
+  <si>
+    <t>Andjela</t>
+  </si>
+  <si>
+    <t>Jovana</t>
+  </si>
+  <si>
+    <t>Teodora</t>
+  </si>
+  <si>
+    <t>Marija</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>Anja</t>
+  </si>
+  <si>
+    <t>Jelena</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Marko</t>
+  </si>
+  <si>
+    <t>Aleksa</t>
+  </si>
+  <si>
+    <t>Lazar</t>
+  </si>
+  <si>
+    <t>Nemanja</t>
+  </si>
+  <si>
+    <t>Miloš</t>
+  </si>
+  <si>
+    <t>Seo-yeon</t>
+  </si>
+  <si>
+    <t>Min-suh</t>
+  </si>
+  <si>
+    <t>Ji-min</t>
+  </si>
+  <si>
+    <t>Seo-hyeon</t>
+  </si>
+  <si>
+    <t>Seo-yun</t>
+  </si>
+  <si>
+    <t>Ye-eun</t>
+  </si>
+  <si>
+    <t>Ha-eun</t>
+  </si>
+  <si>
+    <t>Ji-eun</t>
+  </si>
+  <si>
+    <t>Min-jun</t>
+  </si>
+  <si>
+    <t>Ji-hun</t>
+  </si>
+  <si>
+    <t>Hyun-woo</t>
+  </si>
+  <si>
+    <t>Jun-suh</t>
+  </si>
+  <si>
+    <t>Woo-jin</t>
+  </si>
+  <si>
+    <t>Gun-woo</t>
+  </si>
+  <si>
+    <t>Ye-jun</t>
+  </si>
+  <si>
+    <t>Hyun-jun</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Laia</t>
+  </si>
+  <si>
+    <t>Clàudia</t>
+  </si>
+  <si>
+    <t>Àlex</t>
+  </si>
+  <si>
+    <t>Álex</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
+    <t>Arnau</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Martí</t>
+  </si>
+  <si>
+    <t>Iker</t>
+  </si>
+  <si>
+    <t>Wilma</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Alva</t>
+  </si>
+  <si>
+    <t>Linnea</t>
+  </si>
+  <si>
+    <t>Ebba</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Isak</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Kateryna</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Yulia</t>
+  </si>
+  <si>
+    <t>Yelyzaveta</t>
+  </si>
+  <si>
+    <t>Olexandr</t>
+  </si>
+  <si>
+    <t>Danylo</t>
+  </si>
+  <si>
+    <t>Maksym</t>
+  </si>
+  <si>
+    <t>Vladyslav</t>
+  </si>
+  <si>
+    <t>Mykyta</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Kyrylo</t>
+  </si>
+  <si>
+    <t>Ilya</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -659,7 +1829,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +1838,18 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -684,7 +1866,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,19 +1892,46 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -731,34 +1940,16 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,19 +2236,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M63" sqref="M63:M68"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="10" customWidth="1"/>
     <col min="7" max="7" width="20.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -1072,31 +2263,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="Q2" s="16" t="s">
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="Q2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -1106,13 +2298,13 @@
         <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>583</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
@@ -1121,22 +2313,22 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -1154,21 +2346,21 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
       <c r="P4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3">
         <v>1</v>
@@ -1184,51 +2376,54 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+      <c r="B5" s="21">
         <v>1</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12">
+      <c r="C5" s="16">
         <f>(H5*N5)/$B$5</f>
         <v>12</v>
       </c>
-      <c r="E5" s="11">
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="17">
+        <f>(D5*3)*$B$49</f>
+        <v>30</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9">
-        <f>$B$5*E5</f>
+      <c r="H5" s="15">
+        <f>$B$5*D5</f>
         <v>2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="19">
         <f>$Q$8/H5</f>
         <v>30</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="15">
         <v>2</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="25">
         <f>H5/I5</f>
         <v>2</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="12">
         <f>(J5*K5)/15</f>
         <v>4</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="15">
         <f>($B$5+H5)*($B$5+$B$5)</f>
         <v>6</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -1244,256 +2439,268 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="20"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="15"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12">
+      <c r="B7" s="21"/>
+      <c r="C7" s="16">
         <f>(H7*N7)/$B$5</f>
         <v>24</v>
       </c>
-      <c r="E7" s="11">
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="17">
+        <f t="shared" ref="F7:F12" si="0">(D7*3)*$B$49</f>
+        <v>45</v>
+      </c>
+      <c r="G7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9">
-        <f>$B$5*E7</f>
+      <c r="H7" s="15">
+        <f>$B$5*D7</f>
         <v>3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <v>1</v>
       </c>
-      <c r="J7" s="13">
-        <f t="shared" ref="J7" si="0">$Q$8/H7</f>
+      <c r="J7" s="19">
+        <f t="shared" ref="J7" si="1">$Q$8/H7</f>
         <v>20</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="15">
         <v>2</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" ref="L7" si="1">H7/I7</f>
+      <c r="L7" s="25">
+        <f t="shared" ref="L7" si="2">H7/I7</f>
         <v>3</v>
       </c>
-      <c r="M7" s="17">
-        <f t="shared" ref="M7" si="2">(J7*K7)/15</f>
+      <c r="M7" s="12">
+        <f t="shared" ref="M7" si="3">(J7*K7)/15</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="15">
         <f>($B$5+H7)*($B$5+$B$5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="15"/>
       <c r="P8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12">
+      <c r="B9" s="21"/>
+      <c r="C9" s="16">
         <f>(H9*N9)/$B$5</f>
         <v>40</v>
       </c>
-      <c r="E9" s="11">
+      <c r="D9" s="17">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="17">
+        <f t="shared" ref="F9:F12" si="4">(D9*3)*$B$49</f>
+        <v>60</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="9">
-        <f>$B$5*E9</f>
+      <c r="H9" s="15">
+        <f>$B$5*D9</f>
         <v>4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="17">
         <v>1</v>
       </c>
-      <c r="J9" s="13">
-        <f t="shared" ref="J9" si="3">$Q$8/H9</f>
+      <c r="J9" s="19">
+        <f t="shared" ref="J9" si="5">$Q$8/H9</f>
         <v>15</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="15">
         <v>1</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="25">
         <f>H9/I9</f>
         <v>4</v>
       </c>
-      <c r="M9" s="17">
-        <f t="shared" ref="M9" si="4">(J9*K9)/15</f>
+      <c r="M9" s="12">
+        <f t="shared" ref="M9" si="6">(J9*K9)/15</f>
         <v>1</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="15">
         <f>($B$5+H9)*($B$5+$B$5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="9"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="B11" s="21"/>
+      <c r="C11" s="16">
         <f>(H11*N11)/$B$5</f>
         <v>60</v>
       </c>
-      <c r="E11" s="11">
+      <c r="D11" s="17">
         <v>5</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="17">
+        <f t="shared" ref="F11:F12" si="7">(D11*3)*$B$49</f>
+        <v>75</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="9">
-        <f>$B$5*E11</f>
+      <c r="H11" s="15">
+        <f>$B$5*D11</f>
         <v>5</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
-      <c r="J11" s="13">
-        <f t="shared" ref="J11:J20" si="5">$Q$8/H11</f>
+      <c r="J11" s="19">
+        <f t="shared" ref="J11:J20" si="8">$Q$8/H11</f>
         <v>12</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="15">
         <v>2</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" ref="L11:L20" si="6">H11/I11</f>
+      <c r="L11" s="25">
+        <f t="shared" ref="L11:L20" si="9">H11/I11</f>
         <v>2.5</v>
       </c>
-      <c r="M11" s="17">
-        <f t="shared" ref="M11:M20" si="7">(J11*K11)/15</f>
+      <c r="M11" s="12">
+        <f t="shared" ref="M11:M20" si="10">(J11*K11)/15</f>
         <v>1.6</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="15">
         <f>($B$5+H11)*($B$5+$B$5)</f>
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="9"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="20">
+      <c r="B14" s="21">
         <v>2</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9">
+      <c r="C14" s="15">
         <f>(H14*N14)/$B$14</f>
         <v>126</v>
       </c>
-      <c r="E14" s="2">
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="10">
+        <f>(D14*3)*$B$49</f>
+        <v>15</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="9">
-        <f>((H5*E14)+(E15*H9))/2</f>
+      <c r="H14" s="15">
+        <f>((H5*D14)+(D15*H9))/2</f>
         <v>7</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="15">
         <v>2</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="5"/>
+      <c r="J14" s="19">
+        <f t="shared" si="8"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="17">
         <v>2</v>
       </c>
-      <c r="L14" s="10">
-        <f t="shared" si="6"/>
+      <c r="L14" s="25">
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
-      <c r="M14" s="17">
-        <f t="shared" si="7"/>
+      <c r="M14" s="12">
+        <f t="shared" si="10"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="15">
         <f>($B$14+H14)*($B$14+$B$14)</f>
         <v>36</v>
       </c>
@@ -1505,23 +2712,26 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="2">
+      <c r="B15" s="21"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="2">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="9"/>
+      <c r="F15" s="10">
+        <f t="shared" ref="F15:F21" si="11">(D15*3)*$B$49</f>
+        <v>45</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="15"/>
       <c r="Q15" s="3">
         <f>Q14*R14</f>
         <v>4</v>
@@ -1532,44 +2742,47 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9">
+      <c r="B16" s="21"/>
+      <c r="C16" s="15">
         <f>(H16*N16)/$B$14</f>
         <v>178.5</v>
       </c>
-      <c r="E16" s="2">
+      <c r="D16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="10">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="9">
-        <f>((E16*H7)+(E17*H11))/2</f>
+      <c r="H16" s="15">
+        <f>((D16*H7)+(D17*H11))/2</f>
         <v>8.5</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="16">
         <v>2</v>
       </c>
-      <c r="J16" s="13">
-        <f t="shared" si="5"/>
+      <c r="J16" s="19">
+        <f t="shared" si="8"/>
         <v>7.0588235294117645</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="17">
         <v>2</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="6"/>
+      <c r="L16" s="25">
+        <f t="shared" si="9"/>
         <v>4.25</v>
       </c>
-      <c r="M16" s="17">
-        <f t="shared" si="7"/>
+      <c r="M16" s="12">
+        <f t="shared" si="10"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="15">
         <f>($B$14+H16)*($B$14+$B$14)</f>
         <v>42</v>
       </c>
@@ -1579,67 +2792,73 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="2">
+      <c r="B17" s="21"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="9"/>
+      <c r="F17" s="10">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="15"/>
       <c r="Q17" s="3">
         <f>((K7*2)/Q8)*J7</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9">
+      <c r="B18" s="21"/>
+      <c r="C18" s="15">
         <f>(H18*N18)/$B$14</f>
         <v>262.5</v>
       </c>
-      <c r="E18" s="2">
+      <c r="D18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="F18" s="10">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9">
-        <f>((E18*H9)+(E19*H11))/2</f>
+      <c r="H18" s="15">
+        <f>((D18*H9)+(D19*H11))/2</f>
         <v>10.5</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="16">
         <v>2</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" si="5"/>
+      <c r="J18" s="19">
+        <f t="shared" si="8"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="17">
         <v>2</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="6"/>
+      <c r="L18" s="25">
+        <f t="shared" si="9"/>
         <v>5.25</v>
       </c>
-      <c r="M18" s="17">
-        <f t="shared" si="7"/>
+      <c r="M18" s="12">
+        <f t="shared" si="10"/>
         <v>0.76190476190476197</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="15">
         <f>($B$14+H18)*($B$14+$B$14)</f>
         <v>50</v>
       </c>
@@ -1649,1281 +2868,1603 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2">
+      <c r="B19" s="21"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="9"/>
+      <c r="F19" s="10">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11">
+      <c r="B20" s="21"/>
+      <c r="C20" s="17">
         <f>(H20*N20)/$B$14</f>
         <v>96</v>
       </c>
-      <c r="E20" s="2">
+      <c r="D20" s="2">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="F20" s="10">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9">
-        <f>((E21*H5)+(E20*H5))/2</f>
+      <c r="H20" s="15">
+        <f>((D21*H5)+(D20*H5))/2</f>
         <v>6</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="16">
         <v>2</v>
       </c>
-      <c r="J20" s="13">
-        <f t="shared" si="5"/>
+      <c r="J20" s="19">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="17">
         <v>1</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="6"/>
+      <c r="L20" s="25">
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M20" s="17">
-        <f t="shared" si="7"/>
+      <c r="M20" s="12">
+        <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="15">
         <f>($B$14+H20)*($B$14+$B$14)</f>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="9"/>
+      <c r="F21" s="10">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="15"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>3</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9">
+      <c r="C23" s="15">
         <f>(H23*N23)/$B$23</f>
         <v>291.55555555555554</v>
       </c>
-      <c r="E23" s="2">
+      <c r="D23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="F23" s="10">
+        <f>(D23*3)*$B$49</f>
+        <v>90</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="9">
-        <f>((E23*H7)+(E24*H5)+(E25*H11))/3</f>
+      <c r="H23" s="15">
+        <f>((D23*H7)+(D24*H5)+(D25*H11))/3</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="17">
         <v>3</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="19">
         <f>$Q$8/H23</f>
         <v>5.625</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="17">
         <v>5</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="15">
         <f>H23/I23</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M23" s="12">
         <f>(J23*K23)/15</f>
         <v>1.875</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="17">
         <f>($B$23+H23)*($B$23+$B$23)</f>
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="2">
+      <c r="B24" s="22"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="11"/>
+      <c r="F24" s="10">
+        <f t="shared" ref="F24:F32" si="12">(D24*3)*$B$49</f>
+        <v>30</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="2">
+      <c r="B25" s="22"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="11"/>
+      <c r="F25" s="10">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9">
+      <c r="B26" s="22"/>
+      <c r="C26" s="15">
         <f>(H26*N26)/$B$23</f>
         <v>584.8888888888888</v>
       </c>
-      <c r="E26" s="2">
+      <c r="D26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="10">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="G26" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="9">
-        <f>((E26*H7)+(E27*H11)+(E28*H9))/3</f>
+      <c r="H26" s="15">
+        <f>((D26*H7)+(D27*H11)+(D28*H9))/3</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="17">
         <v>3</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="19">
         <f>$Q$8/H26</f>
         <v>3.8297872340425534</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="17">
         <v>3</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="15">
         <f>H26/I26</f>
         <v>5.2222222222222223</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M26" s="12">
         <f>(J26*K26)/15</f>
         <v>0.76595744680851063</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="17">
         <f>($B$23+H26)*($B$23+$B$23)</f>
         <v>111.99999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="2">
+      <c r="B27" s="22"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="11"/>
+      <c r="F27" s="10">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="2">
+      <c r="B28" s="22"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="2">
         <v>7</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="11"/>
+      <c r="F28" s="10">
+        <f t="shared" si="12"/>
+        <v>105</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11">
+      <c r="B29" s="22"/>
+      <c r="C29" s="17">
         <f>(H29*N29)/$B$23</f>
         <v>920</v>
       </c>
-      <c r="E29" s="2">
+      <c r="D29" s="2">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="F29" s="10">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="9">
-        <f>((E29*H11)+(E30*H11))/2</f>
+      <c r="H29" s="15">
+        <f>((D29*H11)+(D30*H11))/2</f>
         <v>20</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="17">
         <v>4</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="19">
         <f>$Q$8/H29</f>
         <v>3</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="17">
         <v>2</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L29" s="25">
         <f>H29/I29</f>
         <v>5</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M29" s="12">
         <f>(J29*K29)/15</f>
         <v>0.4</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="17">
         <f>($B$23+H29)*($B$23+$B$23)</f>
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="2">
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="11"/>
+      <c r="F30" s="10">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="21"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11">
+      <c r="B31" s="22"/>
+      <c r="C31" s="17">
         <f>(H31*N31)/$B$23</f>
         <v>476</v>
       </c>
-      <c r="E31" s="2">
+      <c r="D31" s="2">
         <v>4</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="10">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="G31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="11">
-        <f>((E31*H20)+(E32*H5))/2</f>
+      <c r="H31" s="17">
+        <f>((D31*H20)+(D32*H5))/2</f>
         <v>14</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="17">
         <v>2</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="19">
         <f>$Q$8/H31</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="17">
         <v>1</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="25">
         <f>H31/I31</f>
         <v>7</v>
       </c>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31" si="8">(J31*K31)/15</f>
+      <c r="M31" s="12">
+        <f t="shared" ref="M31" si="13">(J31*K31)/15</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="17">
         <f>($B$23+H31)*($B$23+$B$23)</f>
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="2">
+      <c r="B32" s="22"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="11"/>
+      <c r="F32" s="10">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="17"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="21">
+      <c r="B34" s="22">
         <v>4</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="19">
+      <c r="C34" s="18">
         <f>(H34*N34)/$B$34</f>
         <v>1050</v>
       </c>
-      <c r="E34" s="2">
+      <c r="D34" s="2">
         <v>10</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="F34" s="10">
+        <f>(D34*3)*$B$49</f>
+        <v>150</v>
+      </c>
+      <c r="G34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="11">
-        <f>((E34*H7)+(E35*H11)+(E36*H11)+(E37*H20))/4</f>
+      <c r="H34" s="17">
+        <f>((D34*H7)+(D35*H11)+(D36*H11)+(D37*H20))/4</f>
         <v>21</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="17">
         <v>3</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="19">
         <f>$Q$8/H34</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="17">
         <v>7</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="15">
         <f>H34/I34</f>
         <v>7</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="12">
         <f>(J34*K34)/15</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="17">
         <f>($B$34+H34)*($B$34+$B$34)</f>
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="2">
         <v>4</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="11"/>
+      <c r="F35" s="10">
+        <f t="shared" ref="F35:F47" si="14">(D35*3)*$B$49</f>
+        <v>60</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="17"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="2">
+      <c r="B36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="11"/>
+      <c r="F36" s="10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="17"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="2">
+      <c r="B37" s="22"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="11"/>
+      <c r="F37" s="10">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="17"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="19">
+      <c r="B38" s="22"/>
+      <c r="C38" s="18">
         <f>(H38*N38)/$B$34</f>
         <v>2040</v>
       </c>
-      <c r="E38" s="2">
+      <c r="D38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="F38" s="10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="G38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="11">
-        <f>((E38*H29)+(E39*H11)+(E40*H11))/3</f>
+      <c r="H38" s="17">
+        <f>((D38*H29)+(D39*H11)+(D40*H11))/3</f>
         <v>30</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="17">
         <v>5</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="19">
         <f>$Q$8/H38</f>
         <v>2</v>
       </c>
-      <c r="K38" s="11">
+      <c r="K38" s="17">
         <v>2</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="17">
         <f>H38/I38</f>
         <v>6</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M38" s="12">
         <f>(J38*K38)/15</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="17">
         <f>($B$34+H38)*($B$34+$B$34)</f>
         <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="21"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="2">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="11"/>
+      <c r="F39" s="10">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="21"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="2">
         <v>6</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="11"/>
+      <c r="F40" s="10">
+        <f t="shared" si="14"/>
+        <v>90</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="19">
+      <c r="B41" s="22"/>
+      <c r="C41" s="18">
         <f>(H41*N41)/$B$34</f>
         <v>1560</v>
       </c>
-      <c r="E41" s="2">
+      <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="F41" s="10">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="G41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="11">
-        <f>((E41*H31)+(E42*H20)+(E43*H5))/3</f>
+      <c r="H41" s="17">
+        <f>((D41*H31)+(D42*H20)+(D43*H5))/3</f>
         <v>26</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="17">
         <v>3</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="19">
         <f>$Q$8/H41</f>
         <v>2.3076923076923075</v>
       </c>
-      <c r="K41" s="11">
+      <c r="K41" s="17">
         <v>1</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="15">
         <f>H41/I41</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="12">
         <f>(J41*K41)/15</f>
         <v>0.15384615384615383</v>
       </c>
-      <c r="N41" s="11">
+      <c r="N41" s="17">
         <f>($B$34+H41)*($B$34+$B$34)</f>
         <v>240</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="11"/>
+      <c r="F42" s="10">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="2">
         <v>2</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="11"/>
+      <c r="F43" s="10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="17"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="19">
+      <c r="B44" s="22"/>
+      <c r="C44" s="18">
         <f>(H44*N44)/$B$34</f>
         <v>3272.5</v>
       </c>
-      <c r="E44" s="2">
+      <c r="D44" s="2">
         <v>11</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="F44" s="10">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="G44" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="9">
-        <f>((E44*H5)+(E45*H7)+(E46*H9)+(E47*H11))/4</f>
+      <c r="H44" s="15">
+        <f>((D44*H5)+(D45*H7)+(D46*H9)+(D47*H11))/4</f>
         <v>38.5</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="17">
         <v>5</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="19">
         <f>$Q$8/H44</f>
         <v>1.5584415584415585</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="17">
         <v>3</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="15">
         <f>H44/I44</f>
         <v>7.7</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M44" s="12">
         <f>(J44*K44)/15</f>
         <v>0.31168831168831174</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N44" s="17">
         <f>($B$34+H44)*($B$34+$B$34)</f>
         <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="2">
+      <c r="B45" s="22"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="2">
         <v>11</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="11"/>
+      <c r="F45" s="10">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="G45" s="17"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="17"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="2">
+      <c r="B46" s="22"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="2">
         <v>11</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="11"/>
+      <c r="F46" s="10">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="17"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="2">
+      <c r="B47" s="22"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="2">
         <v>11</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="11"/>
+      <c r="F47" s="10">
+        <f t="shared" si="14"/>
+        <v>165</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="17"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="21">
+      <c r="B49" s="22">
         <v>5</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="19">
+      <c r="C49" s="18">
         <f>(H49*N49)/$B$49</f>
         <v>1227.52</v>
       </c>
-      <c r="E49" s="2">
+      <c r="D49" s="2">
         <v>10</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="F49" s="10">
+        <f>(D49*3)*$B$49</f>
+        <v>150</v>
+      </c>
+      <c r="G49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="9">
-        <f>((E49*H7)+(E50*H11)+(E51*H9)+(E52*H9)+(E53*H5))/5</f>
+      <c r="H49" s="15">
+        <f>((D49*H7)+(D50*H11)+(D51*H9)+(D52*H9)+(D53*H5))/5</f>
         <v>22.4</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="17">
         <v>4</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="19">
         <f>$Q$8/H49</f>
         <v>2.6785714285714288</v>
       </c>
-      <c r="K49" s="11">
+      <c r="K49" s="17">
         <v>5</v>
       </c>
-      <c r="L49" s="9">
+      <c r="L49" s="15">
         <f>H49/I49</f>
         <v>5.6</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M49" s="12">
         <f>(J49/K49)/15</f>
         <v>3.5714285714285719E-2</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="18">
         <f>($B$49+H49)*($B$49+$B$49)</f>
         <v>274</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="21"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="2">
+      <c r="B50" s="22"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="2">
         <v>2</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="19"/>
+      <c r="F50" s="10">
+        <f t="shared" ref="F50:F68" si="15">(D50*3)*$B$49</f>
+        <v>30</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="21"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="2">
+      <c r="B51" s="22"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="2">
         <v>10</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="19"/>
+      <c r="F51" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="18"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="21"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="2">
+      <c r="B52" s="22"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="2">
         <v>5</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="19"/>
+      <c r="F52" s="10">
+        <f t="shared" si="15"/>
+        <v>75</v>
+      </c>
+      <c r="G52" s="17"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="21"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="2">
+      <c r="B53" s="22"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="2">
         <v>6</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="19"/>
+      <c r="F53" s="10">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="21"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="19">
+      <c r="B54" s="22"/>
+      <c r="C54" s="18">
         <f>(H54*N54)/$B$49</f>
         <v>9372</v>
       </c>
-      <c r="E54" s="2">
+      <c r="D54" s="2">
         <v>4</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="F54" s="10">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="G54" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="9">
-        <f>((E54*H44)+(E55*H11)+(E56*H9)+(E57*H11))/4</f>
+      <c r="H54" s="15">
+        <f>((D54*H44)+(D55*H11)+(D56*H9)+(D57*H11))/4</f>
         <v>66</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="17">
         <v>5</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="19">
         <f>$Q$8/H54</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="17">
         <v>3</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="15">
         <f>H54/I54</f>
         <v>13.2</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M54" s="12">
         <f>(J54/K54)/15</f>
         <v>2.0202020202020204E-2</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="18">
         <f>($B$49+H54)*($B$49+$B$49)</f>
         <v>710</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="21"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="2">
+      <c r="B55" s="22"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="2">
         <v>10</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="19"/>
+      <c r="F55" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G55" s="17"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="18"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="21"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="2">
+      <c r="B56" s="22"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="2">
         <v>10</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="19"/>
+      <c r="F56" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="21"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="2">
+      <c r="B57" s="22"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="2">
         <v>4</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G57" s="11"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="19"/>
+      <c r="F57" s="10">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="21"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="19">
+      <c r="B58" s="22"/>
+      <c r="C58" s="18">
         <f>(H58*N58)/$B$49</f>
         <v>21329.279999999999</v>
       </c>
-      <c r="E58" s="2">
+      <c r="D58" s="2">
         <v>6</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="F58" s="10">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="G58" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="9">
-        <f>((E58*H38)+(E59*H44)+(E60*H11)+(E61*H29)+(E62*H9))/5</f>
+      <c r="H58" s="15">
+        <f>((D58*H38)+(D59*H44)+(D60*H11)+(D61*H29)+(D62*H9))/5</f>
         <v>100.8</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="17">
         <v>8</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="19">
         <f>$Q$8/H58</f>
         <v>0.59523809523809523</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="17">
         <v>2</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="23">
         <f>H58/I58</f>
         <v>12.6</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="12">
         <f>(J58/K58)/15</f>
         <v>1.984126984126984E-2</v>
       </c>
-      <c r="N58" s="19">
+      <c r="N58" s="18">
         <f>($B$49+H58)*($B$49+$B$49)</f>
         <v>1058</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="21"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="2">
+      <c r="B59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="2">
         <v>4</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="19"/>
+      <c r="F59" s="10">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="G59" s="17"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="21"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="2">
+      <c r="B60" s="22"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="2">
         <v>10</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="19"/>
+      <c r="F60" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G60" s="17"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="18"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="2">
+      <c r="B61" s="22"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="19"/>
+      <c r="F61" s="10">
+        <f t="shared" si="15"/>
+        <v>60</v>
+      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="18"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="21"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="2">
+      <c r="B62" s="22"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="2">
         <v>10</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="19"/>
+      <c r="F62" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="18"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="21"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="19">
+      <c r="B63" s="22"/>
+      <c r="C63" s="18">
         <f>(H63*N63)/$B$49</f>
         <v>206155.10888888888</v>
       </c>
-      <c r="E63" s="2">
+      <c r="D63" s="2">
         <v>8</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="F63" s="10">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="G63" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="9">
-        <f>((E63*H58)+(E64*H44)+(E65*H11)+(E66*H38)+(E67*H29)+(E68*H11))/6</f>
+      <c r="H63" s="15">
+        <f>((D63*H58)+(D64*H44)+(D65*H11)+(D66*H38)+(D67*H29)+(D68*H11))/6</f>
         <v>318.56666666666666</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="17">
         <v>10</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="19">
         <f>$Q$8/H63</f>
         <v>0.1883436224756723</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="17">
         <v>10</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="24">
         <f>H63/I63</f>
         <v>31.856666666666666</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="13">
         <f>(J63*K63)/15</f>
         <v>0.12556241498378154</v>
       </c>
-      <c r="N63" s="19">
+      <c r="N63" s="18">
         <f>($B$49+H63)*($B$49+$B$49)</f>
         <v>3235.6666666666665</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="21"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="2">
+      <c r="B64" s="22"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="2">
         <v>10</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G64" s="11"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="19"/>
+      <c r="F64" s="10">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+      <c r="G64" s="17"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="18"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="21"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="2">
+      <c r="B65" s="22"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="2">
         <v>20</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="11"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="19"/>
+      <c r="F65" s="10">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="G65" s="17"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="18"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="21"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="2">
+      <c r="B66" s="22"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="2">
         <v>8</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G66" s="11"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="19"/>
+      <c r="F66" s="10">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="G66" s="17"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="18"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="21"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="2">
+      <c r="B67" s="22"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="2">
         <v>14</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="19"/>
+      <c r="F67" s="10">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="G67" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="18"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="21"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="2">
+      <c r="B68" s="22"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="2">
         <v>20</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="19"/>
+      <c r="F68" s="10">
+        <f t="shared" si="15"/>
+        <v>300</v>
+      </c>
+      <c r="G68" s="17"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="18"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L74" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="221">
+  <mergeCells count="205">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="L58:L62"/>
+    <mergeCell ref="L63:L68"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="G49:G53"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="J34:J37"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N26:N28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B48:N48"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="N49:N53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B34:B47"/>
+    <mergeCell ref="B49:B68"/>
+    <mergeCell ref="N63:N68"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="N58:N62"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C34:C37"/>
     <mergeCell ref="M49:M53"/>
     <mergeCell ref="M54:M57"/>
     <mergeCell ref="M58:M62"/>
@@ -2948,203 +4489,6 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="K54:K57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B34:B47"/>
-    <mergeCell ref="B49:B68"/>
-    <mergeCell ref="N63:N68"/>
-    <mergeCell ref="J63:J68"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="N58:N62"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="B48:N48"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="N49:N53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="J34:J37"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N26:N28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K34:K37"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="L58:L62"/>
-    <mergeCell ref="L63:L68"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="G49:G53"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3156,8 +4500,8 @@
   <dimension ref="B1:R60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3173,88 +4517,88 @@
   <sheetData>
     <row r="1" spans="2:18" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="B2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="O3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="11">
+      <c r="B5" s="17">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -3282,12 +4626,12 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -3315,12 +4659,12 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -3348,12 +4692,12 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -3381,18 +4725,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
       <c r="O9" s="4">
         <v>1</v>
       </c>
@@ -3407,14 +4751,14 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
+      <c r="B10" s="17">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5">
         <f>(H10*I10*J10*K10)*$B$10+F10</f>
@@ -3458,12 +4802,12 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:E17" si="1">(H11*I11*J11*K11)*$B$10+F11</f>
@@ -3507,12 +4851,12 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="11"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
@@ -3556,12 +4900,12 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
@@ -3605,12 +4949,12 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -3642,12 +4986,12 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
@@ -3679,12 +5023,12 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
@@ -3716,12 +5060,12 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" si="1"/>
@@ -3753,28 +5097,28 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
+      <c r="B19" s="17">
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5">
         <f>(H19*I19*J19*K19)*$B$19+F19</f>
@@ -3806,12 +5150,12 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ref="E20:E26" si="5">(H20*I20*J20*K20)*$B$19+F20</f>
@@ -3843,12 +5187,12 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="11"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="5"/>
@@ -3880,12 +5224,12 @@
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="5"/>
@@ -3917,12 +5261,12 @@
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="5"/>
@@ -3954,12 +5298,12 @@
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="5"/>
@@ -3991,12 +5335,12 @@
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="5"/>
@@ -4028,12 +5372,12 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="5">
         <f t="shared" si="5"/>
@@ -4065,28 +5409,28 @@
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="11">
+      <c r="B28" s="17">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" s="5">
         <f>(H28*I28*J28*K28)*$B$28+F28</f>
@@ -4118,12 +5462,12 @@
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" ref="E29:E35" si="9">(H29*I29*J29*K29)*$B$28+F29</f>
@@ -4155,12 +5499,12 @@
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="9"/>
@@ -4192,12 +5536,12 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="11"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="5">
         <f t="shared" si="9"/>
@@ -4229,12 +5573,12 @@
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" si="9"/>
@@ -4266,12 +5610,12 @@
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="9"/>
@@ -4303,12 +5647,12 @@
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" si="9"/>
@@ -4340,12 +5684,12 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="9"/>
@@ -4377,28 +5721,28 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
+      <c r="B37" s="17">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="5">
         <f>(H37*I37*J37*K37)*$B$37+F37</f>
@@ -4430,12 +5774,12 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" ref="E38:E44" si="13">(H38*I38*J38*K38)*$B$37+F38</f>
@@ -4467,12 +5811,12 @@
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="11"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="13"/>
@@ -4504,12 +5848,12 @@
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="11"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="13"/>
@@ -4541,12 +5885,12 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="13"/>
@@ -4578,12 +5922,12 @@
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="13"/>
@@ -4615,12 +5959,12 @@
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="13"/>
@@ -4652,12 +5996,12 @@
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="13"/>
@@ -4689,28 +6033,28 @@
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="11">
+      <c r="B46" s="17">
         <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46" s="5">
         <f>(H46*I46*J46*K46)*$B$46+F46</f>
@@ -4742,12 +6086,12 @@
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" ref="E47:E53" si="17">(H47*I47*J47*K47)*$B$46+F47</f>
@@ -4779,12 +6123,12 @@
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="17"/>
@@ -4816,12 +6160,12 @@
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="17"/>
@@ -4853,12 +6197,12 @@
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="17"/>
@@ -4890,12 +6234,12 @@
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="17"/>
@@ -4927,12 +6271,12 @@
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="17"/>
@@ -4964,12 +6308,12 @@
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="17"/>
@@ -5001,28 +6345,28 @@
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
-        <v>42</v>
+      <c r="B55" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E55" s="5">
         <f>(H55*I55*J55*K55)*$B$59+F55</f>
@@ -5054,12 +6398,12 @@
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" ref="E56:E59" si="21">(H56*I56*J56*K56)*$B$59+F56</f>
@@ -5091,12 +6435,12 @@
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="11"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="21"/>
@@ -5128,12 +6472,12 @@
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="11"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="21"/>
@@ -5169,10 +6513,10 @@
         <v>10</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="21"/>
@@ -5204,26 +6548,21 @@
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B36:M36"/>
     <mergeCell ref="B60:M60"/>
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="O3:R3"/>
@@ -5236,6 +6575,11 @@
     <mergeCell ref="B37:B44"/>
     <mergeCell ref="B46:B53"/>
     <mergeCell ref="B45:M45"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B27:M27"/>
+    <mergeCell ref="B36:M36"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5243,356 +6587,1614 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:N13"/>
+  <dimension ref="B2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="15" width="7.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="K38" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="D41" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="M4" s="24" t="s">
+      <c r="E43" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="H53" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="K13" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>97</v>
+      <c r="I53" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B30:B417">
+    <sortCondition ref="B30"/>
+  </sortState>
   <mergeCells count="2">
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B29:L29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/General Recipes.xlsx
+++ b/General Recipes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="585">
   <si>
     <t>Recursos Primarios</t>
   </si>
@@ -1778,6 +1778,9 @@
   </si>
   <si>
     <t>Storage</t>
+  </si>
+  <si>
+    <t>HP %</t>
   </si>
 </sst>
 </file>
@@ -1866,7 +1869,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1901,31 +1904,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1934,13 +1946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2236,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
     </sheetView>
@@ -2268,27 +2274,27 @@
       <c r="F1" s="11"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="Q2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -2346,19 +2352,19 @@
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
       <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
@@ -2376,49 +2382,49 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="21">
+      <c r="B5" s="24">
         <v>1</v>
       </c>
       <c r="C5" s="16">
         <f>(H5*N5)/$B$5</f>
         <v>12</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="13">
         <f>(D5*3)*$B$49</f>
         <v>30</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f>$B$5*D5</f>
         <v>2</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>1</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="17">
         <f>$Q$8/H5</f>
         <v>30</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>2</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="15">
         <f>H5/I5</f>
         <v>2</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="21">
         <f>(J5*K5)/15</f>
         <v>4</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <f>($B$5+H5)*($B$5+$B$5)</f>
         <v>6</v>
       </c>
@@ -2439,80 +2445,80 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="15"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="16">
         <f>(H7*N7)/$B$5</f>
         <v>24</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17">
-        <f t="shared" ref="F7:F12" si="0">(D7*3)*$B$49</f>
+      <c r="F7" s="13">
+        <f t="shared" ref="F7" si="0">(D7*3)*$B$49</f>
         <v>45</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <f>$B$5*D7</f>
         <v>3</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <f t="shared" ref="J7" si="1">$Q$8/H7</f>
         <v>20</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>2</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="15">
         <f t="shared" ref="L7" si="2">H7/I7</f>
         <v>3</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="21">
         <f t="shared" ref="M7" si="3">(J7*K7)/15</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <f>($B$5+H7)*($B$5+$B$5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="15"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="14"/>
       <c r="P8" s="3" t="s">
         <v>59</v>
       </c>
@@ -2521,147 +2527,147 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="16">
         <f>(H9*N9)/$B$5</f>
         <v>40</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="17">
-        <f t="shared" ref="F9:F12" si="4">(D9*3)*$B$49</f>
+      <c r="F9" s="13">
+        <f t="shared" ref="F9" si="4">(D9*3)*$B$49</f>
         <v>60</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <f>$B$5*D9</f>
         <v>4</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <f t="shared" ref="J9" si="5">$Q$8/H9</f>
         <v>15</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>1</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="15">
         <f>H9/I9</f>
         <v>4</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="21">
         <f t="shared" ref="M9" si="6">(J9*K9)/15</f>
         <v>1</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <f>($B$5+H9)*($B$5+$B$5)</f>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="16">
         <f>(H11*N11)/$B$5</f>
         <v>60</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="17">
-        <f t="shared" ref="F11:F12" si="7">(D11*3)*$B$49</f>
+      <c r="F11" s="13">
+        <f t="shared" ref="F11" si="7">(D11*3)*$B$49</f>
         <v>75</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <f>$B$5*D11</f>
         <v>5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="13">
         <v>2</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <f t="shared" ref="J11:J20" si="8">$Q$8/H11</f>
         <v>12</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>2</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="15">
         <f t="shared" ref="L11:L20" si="9">H11/I11</f>
         <v>2.5</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="21">
         <f t="shared" ref="M11:M20" si="10">(J11*K11)/15</f>
         <v>1.6</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <f>($B$5+H11)*($B$5+$B$5)</f>
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
+      <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>(H14*N14)/$B$14</f>
         <v>126</v>
       </c>
@@ -2675,32 +2681,32 @@
         <f>(D14*3)*$B$49</f>
         <v>15</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f>((H5*D14)+(D15*H9))/2</f>
         <v>7</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <v>2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="17">
         <f t="shared" si="8"/>
         <v>8.5714285714285712</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="13">
         <v>2</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="15">
         <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="21">
         <f t="shared" si="10"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <f>($B$14+H14)*($B$14+$B$14)</f>
         <v>36</v>
       </c>
@@ -2712,8 +2718,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="2">
         <v>3</v>
       </c>
@@ -2724,14 +2730,14 @@
         <f t="shared" ref="F15:F21" si="11">(D15*3)*$B$49</f>
         <v>45</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="15"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="14"/>
       <c r="Q15" s="3">
         <f>Q14*R14</f>
         <v>4</v>
@@ -2742,8 +2748,8 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="15">
+      <c r="B16" s="24"/>
+      <c r="C16" s="14">
         <f>(H16*N16)/$B$14</f>
         <v>178.5</v>
       </c>
@@ -2760,29 +2766,29 @@
       <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="14">
         <f>((D16*H7)+(D17*H11))/2</f>
         <v>8.5</v>
       </c>
       <c r="I16" s="16">
         <v>2</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <f t="shared" si="8"/>
         <v>7.0588235294117645</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="13">
         <v>2</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="15">
         <f t="shared" si="9"/>
         <v>4.25</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="21">
         <f t="shared" si="10"/>
         <v>0.94117647058823528</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <f>($B$14+H16)*($B$14+$B$14)</f>
         <v>42</v>
       </c>
@@ -2792,8 +2798,8 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="2">
         <v>1</v>
       </c>
@@ -2805,21 +2811,21 @@
         <v>15</v>
       </c>
       <c r="G17" s="16"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="15"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="14"/>
       <c r="Q17" s="3">
         <f>((K7*2)/Q8)*J7</f>
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="15">
+      <c r="B18" s="24"/>
+      <c r="C18" s="14">
         <f>(H18*N18)/$B$14</f>
         <v>262.5</v>
       </c>
@@ -2836,29 +2842,29 @@
       <c r="G18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="14">
         <f>((D18*H9)+(D19*H11))/2</f>
         <v>10.5</v>
       </c>
       <c r="I18" s="16">
         <v>2</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="17">
         <f t="shared" si="8"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="13">
         <v>2</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="15">
         <f t="shared" si="9"/>
         <v>5.25</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="21">
         <f t="shared" si="10"/>
         <v>0.76190476190476197</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <f>($B$14+H18)*($B$14+$B$14)</f>
         <v>50</v>
       </c>
@@ -2868,8 +2874,8 @@
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2">
         <v>1</v>
       </c>
@@ -2881,17 +2887,17 @@
         <v>15</v>
       </c>
       <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="14"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="15"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="17">
+      <c r="B20" s="24"/>
+      <c r="C20" s="13">
         <f>(H20*N20)/$B$14</f>
         <v>96</v>
       </c>
@@ -2908,36 +2914,36 @@
       <c r="G20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="14">
         <f>((D21*H5)+(D20*H5))/2</f>
         <v>6</v>
       </c>
       <c r="I20" s="16">
         <v>2</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="17">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="13">
         <v>1</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="15">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="21">
         <f t="shared" si="10"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <f>($B$14+H20)*($B$14+$B$14)</f>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2">
         <v>2</v>
       </c>
@@ -2949,34 +2955,34 @@
         <v>30</v>
       </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="15"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="22">
+      <c r="B23" s="25">
         <v>3</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f>(H23*N23)/$B$23</f>
         <v>291.55555555555554</v>
       </c>
@@ -2990,39 +2996,39 @@
         <f>(D23*3)*$B$49</f>
         <v>90</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <f>((D23*H7)+(D24*H5)+(D25*H11))/3</f>
         <v>10.666666666666666</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>3</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="17">
         <f>$Q$8/H23</f>
         <v>5.625</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="13">
         <v>5</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <f>H23/I23</f>
         <v>3.5555555555555554</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="21">
         <f>(J23*K23)/15</f>
         <v>1.875</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="13">
         <f>($B$23+H23)*($B$23+$B$23)</f>
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="15"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="2">
         <v>2</v>
       </c>
@@ -3033,18 +3039,18 @@
         <f t="shared" ref="F24:F32" si="12">(D24*3)*$B$49</f>
         <v>30</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="17"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2">
         <v>2</v>
       </c>
@@ -3055,18 +3061,18 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="17"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="15">
+      <c r="B26" s="25"/>
+      <c r="C26" s="14">
         <f>(H26*N26)/$B$23</f>
         <v>584.8888888888888</v>
       </c>
@@ -3080,39 +3086,39 @@
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <f>((D26*H7)+(D27*H11)+(D28*H9))/3</f>
         <v>15.666666666666666</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="13">
         <v>3</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="17">
         <f>$Q$8/H26</f>
         <v>3.8297872340425534</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="13">
         <v>3</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <f>H26/I26</f>
         <v>5.2222222222222223</v>
       </c>
-      <c r="M26" s="12">
+      <c r="M26" s="21">
         <f>(J26*K26)/15</f>
         <v>0.76595744680851063</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="13">
         <f>($B$23+H26)*($B$23+$B$23)</f>
         <v>111.99999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="15"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="2">
         <v>2</v>
       </c>
@@ -3123,18 +3129,18 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="17"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="2">
         <v>7</v>
       </c>
@@ -3145,18 +3151,18 @@
         <f t="shared" si="12"/>
         <v>105</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="17"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="17">
+      <c r="B29" s="25"/>
+      <c r="C29" s="13">
         <f>(H29*N29)/$B$23</f>
         <v>920</v>
       </c>
@@ -3170,39 +3176,39 @@
         <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <f>((D29*H11)+(D30*H11))/2</f>
         <v>20</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="13">
         <v>4</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="17">
         <f>$Q$8/H29</f>
         <v>3</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="13">
         <v>2</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="15">
         <f>H29/I29</f>
         <v>5</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="21">
         <f>(J29*K29)/15</f>
         <v>0.4</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="13">
         <f>($B$23+H29)*($B$23+$B$23)</f>
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2">
         <v>5</v>
       </c>
@@ -3213,18 +3219,18 @@
         <f t="shared" si="12"/>
         <v>75</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="17"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="17">
+      <c r="B31" s="25"/>
+      <c r="C31" s="13">
         <f>(H31*N31)/$B$23</f>
         <v>476</v>
       </c>
@@ -3238,39 +3244,39 @@
         <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="13">
         <f>((D31*H20)+(D32*H5))/2</f>
         <v>14</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="13">
         <v>2</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="17">
         <f>$Q$8/H31</f>
         <v>4.2857142857142856</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="13">
         <v>1</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="15">
         <f>H31/I31</f>
         <v>7</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="21">
         <f t="shared" ref="M31" si="13">(J31*K31)/15</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="13">
         <f>($B$23+H31)*($B$23+$B$23)</f>
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="17"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2">
         <v>2</v>
       </c>
@@ -3281,35 +3287,35 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="17"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="22">
+      <c r="B34" s="25">
         <v>4</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="23">
         <f>(H34*N34)/$B$34</f>
         <v>1050</v>
       </c>
@@ -3323,39 +3329,39 @@
         <f>(D34*3)*$B$49</f>
         <v>150</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="13">
         <f>((D34*H7)+(D35*H11)+(D36*H11)+(D37*H20))/4</f>
         <v>21</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="13">
         <v>3</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="17">
         <f>$Q$8/H34</f>
         <v>2.8571428571428572</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="13">
         <v>7</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="14">
         <f>H34/I34</f>
         <v>7</v>
       </c>
-      <c r="M34" s="12">
+      <c r="M34" s="21">
         <f>(J34*K34)/15</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="13">
         <f>($B$34+H34)*($B$34+$B$34)</f>
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="2">
         <v>4</v>
       </c>
@@ -3366,18 +3372,18 @@
         <f t="shared" ref="F35:F47" si="14">(D35*3)*$B$49</f>
         <v>60</v>
       </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="17"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="2">
         <v>2</v>
       </c>
@@ -3388,18 +3394,18 @@
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="17"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="2">
         <v>4</v>
       </c>
@@ -3410,18 +3416,18 @@
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="17"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="18">
+      <c r="B38" s="25"/>
+      <c r="C38" s="23">
         <f>(H38*N38)/$B$34</f>
         <v>2040</v>
       </c>
@@ -3435,39 +3441,39 @@
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="13">
         <f>((D38*H29)+(D39*H11)+(D40*H11))/3</f>
         <v>30</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="13">
         <v>5</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="17">
         <f>$Q$8/H38</f>
         <v>2</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="13">
         <v>2</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="13">
         <f>H38/I38</f>
         <v>6</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="21">
         <f>(J38*K38)/15</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="13">
         <f>($B$34+H38)*($B$34+$B$34)</f>
         <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="2">
         <v>4</v>
       </c>
@@ -3478,18 +3484,18 @@
         <f t="shared" si="14"/>
         <v>60</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="17"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
-      <c r="C40" s="18"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="2">
         <v>6</v>
       </c>
@@ -3500,18 +3506,18 @@
         <f t="shared" si="14"/>
         <v>90</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="17"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="13"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="18">
+      <c r="B41" s="25"/>
+      <c r="C41" s="23">
         <f>(H41*N41)/$B$34</f>
         <v>1560</v>
       </c>
@@ -3525,39 +3531,39 @@
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="13">
         <f>((D41*H31)+(D42*H20)+(D43*H5))/3</f>
         <v>26</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="13">
         <v>3</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="17">
         <f>$Q$8/H41</f>
         <v>2.3076923076923075</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K41" s="13">
         <v>1</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="14">
         <f>H41/I41</f>
         <v>8.6666666666666661</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="21">
         <f>(J41*K41)/15</f>
         <v>0.15384615384615383</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="13">
         <f>($B$34+H41)*($B$34+$B$34)</f>
         <v>240</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="18"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -3568,18 +3574,18 @@
         <f t="shared" si="14"/>
         <v>150</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="17"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="23"/>
       <c r="D43" s="2">
         <v>2</v>
       </c>
@@ -3590,18 +3596,18 @@
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="17"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="13"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-      <c r="C44" s="18">
+      <c r="B44" s="25"/>
+      <c r="C44" s="23">
         <f>(H44*N44)/$B$34</f>
         <v>3272.5</v>
       </c>
@@ -3615,39 +3621,39 @@
         <f t="shared" si="14"/>
         <v>165</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="14">
         <f>((D44*H5)+(D45*H7)+(D46*H9)+(D47*H11))/4</f>
         <v>38.5</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="13">
         <v>5</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="17">
         <f>$Q$8/H44</f>
         <v>1.5584415584415585</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="13">
         <v>3</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="14">
         <f>H44/I44</f>
         <v>7.7</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="21">
         <f>(J44*K44)/15</f>
         <v>0.31168831168831174</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="13">
         <f>($B$34+H44)*($B$34+$B$34)</f>
         <v>340</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-      <c r="C45" s="18"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="2">
         <v>11</v>
       </c>
@@ -3658,18 +3664,18 @@
         <f t="shared" si="14"/>
         <v>165</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="17"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="13"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-      <c r="C46" s="18"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="23"/>
       <c r="D46" s="2">
         <v>11</v>
       </c>
@@ -3680,18 +3686,18 @@
         <f t="shared" si="14"/>
         <v>165</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="17"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="13"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="18"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="23"/>
       <c r="D47" s="2">
         <v>11</v>
       </c>
@@ -3702,35 +3708,35 @@
         <f t="shared" si="14"/>
         <v>165</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="17"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="13"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="22">
+      <c r="B49" s="25">
         <v>5</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="23">
         <f>(H49*N49)/$B$49</f>
         <v>1227.52</v>
       </c>
@@ -3744,39 +3750,39 @@
         <f>(D49*3)*$B$49</f>
         <v>150</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="14">
         <f>((D49*H7)+(D50*H11)+(D51*H9)+(D52*H9)+(D53*H5))/5</f>
         <v>22.4</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="13">
         <v>4</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="17">
         <f>$Q$8/H49</f>
         <v>2.6785714285714288</v>
       </c>
-      <c r="K49" s="17">
+      <c r="K49" s="13">
         <v>5</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <f>H49/I49</f>
         <v>5.6</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="21">
         <f>(J49/K49)/15</f>
         <v>3.5714285714285719E-2</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="23">
         <f>($B$49+H49)*($B$49+$B$49)</f>
         <v>274</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="22"/>
-      <c r="C50" s="18"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="2">
         <v>2</v>
       </c>
@@ -3787,18 +3793,18 @@
         <f t="shared" ref="F50:F68" si="15">(D50*3)*$B$49</f>
         <v>30</v>
       </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="18"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="23"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="18"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="2">
         <v>10</v>
       </c>
@@ -3809,18 +3815,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="18"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="23"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="22"/>
-      <c r="C52" s="18"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="23"/>
       <c r="D52" s="2">
         <v>5</v>
       </c>
@@ -3831,18 +3837,18 @@
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="18"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="23"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="2">
         <v>6</v>
       </c>
@@ -3853,18 +3859,18 @@
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="18"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="23"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-      <c r="C54" s="18">
+      <c r="B54" s="25"/>
+      <c r="C54" s="23">
         <f>(H54*N54)/$B$49</f>
         <v>9372</v>
       </c>
@@ -3878,39 +3884,39 @@
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="14">
         <f>((D54*H44)+(D55*H11)+(D56*H9)+(D57*H11))/4</f>
         <v>66</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="13">
         <v>5</v>
       </c>
-      <c r="J54" s="19">
+      <c r="J54" s="17">
         <f>$Q$8/H54</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="K54" s="17">
+      <c r="K54" s="13">
         <v>3</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L54" s="14">
         <f>H54/I54</f>
         <v>13.2</v>
       </c>
-      <c r="M54" s="12">
+      <c r="M54" s="21">
         <f>(J54/K54)/15</f>
         <v>2.0202020202020204E-2</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="23">
         <f>($B$49+H54)*($B$49+$B$49)</f>
         <v>710</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="18"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="2">
         <v>10</v>
       </c>
@@ -3921,18 +3927,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="18"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="23"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="18"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="2">
         <v>10</v>
       </c>
@@ -3943,18 +3949,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="18"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="23"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="2">
         <v>4</v>
       </c>
@@ -3965,18 +3971,18 @@
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="18"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="23"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-      <c r="C58" s="18">
+      <c r="B58" s="25"/>
+      <c r="C58" s="23">
         <f>(H58*N58)/$B$49</f>
         <v>21329.279999999999</v>
       </c>
@@ -3990,39 +3996,39 @@
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="14">
         <f>((D58*H38)+(D59*H44)+(D60*H11)+(D61*H29)+(D62*H9))/5</f>
         <v>100.8</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="13">
         <v>8</v>
       </c>
-      <c r="J58" s="19">
+      <c r="J58" s="17">
         <f>$Q$8/H58</f>
         <v>0.59523809523809523</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="13">
         <v>2</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="18">
         <f>H58/I58</f>
         <v>12.6</v>
       </c>
-      <c r="M58" s="12">
+      <c r="M58" s="21">
         <f>(J58/K58)/15</f>
         <v>1.984126984126984E-2</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="23">
         <f>($B$49+H58)*($B$49+$B$49)</f>
         <v>1058</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="2">
         <v>4</v>
       </c>
@@ -4033,18 +4039,18 @@
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G59" s="17"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="17"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="18"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="23"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="2">
         <v>10</v>
       </c>
@@ -4055,18 +4061,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G60" s="17"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="17"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="18"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="23"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="2">
         <v>4</v>
       </c>
@@ -4077,18 +4083,18 @@
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="18"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="23"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="2">
         <v>10</v>
       </c>
@@ -4099,18 +4105,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="18"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="23"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-      <c r="C63" s="18">
+      <c r="B63" s="25"/>
+      <c r="C63" s="23">
         <f>(H63*N63)/$B$49</f>
         <v>206155.10888888888</v>
       </c>
@@ -4124,39 +4130,39 @@
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="14">
         <f>((D63*H58)+(D64*H44)+(D65*H11)+(D66*H38)+(D67*H29)+(D68*H11))/6</f>
         <v>318.56666666666666</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I63" s="13">
         <v>10</v>
       </c>
-      <c r="J63" s="19">
+      <c r="J63" s="17">
         <f>$Q$8/H63</f>
         <v>0.1883436224756723</v>
       </c>
-      <c r="K63" s="17">
+      <c r="K63" s="13">
         <v>10</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L63" s="19">
         <f>H63/I63</f>
         <v>31.856666666666666</v>
       </c>
-      <c r="M63" s="13">
+      <c r="M63" s="26">
         <f>(J63*K63)/15</f>
         <v>0.12556241498378154</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="23">
         <f>($B$49+H63)*($B$49+$B$49)</f>
         <v>3235.6666666666665</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="2">
         <v>10</v>
       </c>
@@ -4167,18 +4173,18 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="G64" s="17"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="17"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="18"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="23"/>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="18"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="2">
         <v>20</v>
       </c>
@@ -4189,18 +4195,18 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="G65" s="17"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="18"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="23"/>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="2">
         <v>8</v>
       </c>
@@ -4211,18 +4217,18 @@
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="17"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="18"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="23"/>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="2">
         <v>14</v>
       </c>
@@ -4233,18 +4239,18 @@
         <f t="shared" si="15"/>
         <v>210</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="18"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="23"/>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="2">
         <v>20</v>
       </c>
@@ -4255,64 +4261,176 @@
         <f t="shared" si="15"/>
         <v>300</v>
       </c>
-      <c r="G68" s="17"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="17"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="18"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="23"/>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="L74" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="N29:N30"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="M49:M53"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="M58:M62"/>
+    <mergeCell ref="M63:M68"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B34:B47"/>
+    <mergeCell ref="B49:B68"/>
+    <mergeCell ref="N63:N68"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="H58:H62"/>
+    <mergeCell ref="I58:I62"/>
+    <mergeCell ref="J58:J62"/>
+    <mergeCell ref="N58:N62"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B13:N13"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B48:N48"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="I49:I53"/>
+    <mergeCell ref="J49:J53"/>
+    <mergeCell ref="N49:N53"/>
+    <mergeCell ref="K49:K53"/>
+    <mergeCell ref="N38:N40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="N41:N43"/>
+    <mergeCell ref="K41:K43"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="J44:J47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="M38:M40"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L41:L43"/>
+    <mergeCell ref="L44:L47"/>
     <mergeCell ref="L58:L62"/>
     <mergeCell ref="L63:L68"/>
     <mergeCell ref="Q2:T2"/>
@@ -4337,158 +4455,46 @@
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="N26:N28"/>
     <mergeCell ref="I26:I28"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="N29:N30"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="M26:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M34:M37"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L57"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J20:J21"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K34:K37"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="M26:M28"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M34:M37"/>
-    <mergeCell ref="N41:N43"/>
-    <mergeCell ref="K41:K43"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="J44:J47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="I41:I43"/>
-    <mergeCell ref="J41:J43"/>
-    <mergeCell ref="M38:M40"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="L38:L40"/>
-    <mergeCell ref="L41:L43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B13:N13"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="B48:N48"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="H49:H53"/>
-    <mergeCell ref="I49:I53"/>
-    <mergeCell ref="J49:J53"/>
-    <mergeCell ref="N49:N53"/>
-    <mergeCell ref="K49:K53"/>
-    <mergeCell ref="N38:N40"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="B34:B47"/>
-    <mergeCell ref="B49:B68"/>
-    <mergeCell ref="N63:N68"/>
-    <mergeCell ref="J63:J68"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="H58:H62"/>
-    <mergeCell ref="I58:I62"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="N58:N62"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="K54:K57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="M49:M53"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="M58:M62"/>
-    <mergeCell ref="M63:M68"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4497,11 +4503,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R60"/>
+  <dimension ref="B1:S60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10:J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H55" sqref="H55:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4509,30 +4515,33 @@
     <col min="1" max="1" width="8.88671875" style="4"/>
     <col min="2" max="2" width="12.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="4"/>
-    <col min="13" max="13" width="11.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="4"/>
+    <col min="4" max="7" width="12.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="12" customWidth="1"/>
+    <col min="9" max="12" width="12.44140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:19" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -4552,46 +4561,50 @@
         <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -4609,7 +4622,8 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
+        <f>G5</f>
         <v>1</v>
       </c>
       <c r="I5" s="4">
@@ -4621,12 +4635,15 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="M5" s="4">
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
@@ -4642,7 +4659,8 @@
       <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="7">
+        <f t="shared" ref="H6:H59" si="0">G6</f>
         <v>1</v>
       </c>
       <c r="I6" s="4">
@@ -4654,12 +4672,15 @@
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="M6" s="4">
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" s="13"/>
       <c r="C7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4675,7 +4696,8 @@
       <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="4">
@@ -4687,12 +4709,15 @@
       <c r="K7" s="4">
         <v>1</v>
       </c>
-      <c r="M7" s="4">
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="N7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
@@ -4708,7 +4733,8 @@
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I8" s="4">
@@ -4720,38 +4746,42 @@
       <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="P9" s="4">
         <v>1</v>
       </c>
       <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4">
         <v>2</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="17">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4761,19 +4791,20 @@
         <v>45</v>
       </c>
       <c r="E10" s="5">
-        <f>(H10*I10*J10*K10)*$B$10+F10</f>
+        <f>(I10*J10*K10*L10)*$B$10+F10</f>
         <v>2.5</v>
       </c>
       <c r="F10" s="5">
-        <f>((H10*I10*J10*K10)/4)*$B$10</f>
+        <f>((I10*J10*K10*L10)/4)*$B$10</f>
         <v>0.5</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" ref="G10:G17" si="0">(H10*H10)*2</f>
+        <f t="shared" ref="G10:G17" si="1">(I10*I10)*2</f>
         <v>2</v>
       </c>
-      <c r="H10" s="4">
-        <v>1</v>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -4782,27 +4813,30 @@
         <v>1</v>
       </c>
       <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <f>E10/3</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="4">
-        <v>2</v>
-      </c>
       <c r="P10" s="4">
         <v>2</v>
       </c>
       <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
@@ -4810,48 +4844,52 @@
         <v>46</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:E17" si="1">(H11*I11*J11*K11)*$B$10+F11</f>
+        <f t="shared" ref="E11:E17" si="2">(I11*J11*K11*L11)*$B$10+F11</f>
         <v>2.5</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11:F17" si="2">((H11*I11*J11*K11)/4)*$B$10</f>
+        <f t="shared" ref="F11:F17" si="3">((I11*J11*K11*L11)/4)*$B$10</f>
         <v>0.5</v>
       </c>
       <c r="G11" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>1</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" ref="M11:M17" si="3">E11/3</f>
+      <c r="N11" s="5">
+        <f t="shared" ref="N11:N17" si="4">E11/3</f>
         <v>0.83333333333333337</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3</v>
       </c>
       <c r="P11" s="4">
         <v>3</v>
       </c>
       <c r="Q11" s="4">
+        <v>3</v>
+      </c>
+      <c r="R11" s="4">
         <v>8</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
@@ -4859,48 +4897,52 @@
         <v>47</v>
       </c>
       <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
       </c>
-      <c r="M12" s="5">
-        <f t="shared" si="3"/>
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4</v>
       </c>
       <c r="P12" s="4">
         <v>4</v>
       </c>
       <c r="Q12" s="4">
+        <v>4</v>
+      </c>
+      <c r="R12" s="4">
         <v>10</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
       <c r="C13" s="4" t="s">
         <v>61</v>
       </c>
@@ -4908,22 +4950,23 @@
         <v>44</v>
       </c>
       <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="8">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>2</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
       </c>
       <c r="J13" s="4">
         <v>1</v>
@@ -4931,25 +4974,28 @@
       <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="M13" s="5">
-        <f t="shared" si="3"/>
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="O13" s="4">
+      <c r="P13" s="4">
         <v>5</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>6</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="4">
         <v>10</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
       <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
@@ -4957,36 +5003,40 @@
         <v>44</v>
       </c>
       <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
+        <v>8</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
       <c r="I14" s="4">
         <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="M14" s="5">
-        <f t="shared" si="3"/>
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
       <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
@@ -4994,36 +5044,40 @@
         <v>46</v>
       </c>
       <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="8">
+        <v>8</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>1</v>
       </c>
-      <c r="M15" s="5">
-        <f t="shared" si="3"/>
+      <c r="N15" s="5">
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
       <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
@@ -5031,36 +5085,40 @@
         <v>45</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
       <c r="I16" s="4">
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="5">
-        <f t="shared" si="3"/>
+      <c r="L16" s="4">
+        <v>2</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
@@ -5068,50 +5126,55 @@
         <v>47</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="5">
-        <f t="shared" si="3"/>
+      <c r="N17" s="5">
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="17">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="13">
         <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -5121,36 +5184,40 @@
         <v>44</v>
       </c>
       <c r="E19" s="5">
-        <f>(H19*I19*J19*K19)*$B$19+F19</f>
+        <f>(I19*J19*K19*L19)*$B$19+F19</f>
         <v>150</v>
       </c>
       <c r="F19" s="5">
-        <f>((H19*I19*J19*K19)/4)*$B$19</f>
+        <f>((I19*J19*K19*L19)/4)*$B$19</f>
         <v>30</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" ref="G19:G26" si="4">(H19*H19)*2</f>
+        <f t="shared" ref="G19:G26" si="5">(I19*I19)*2</f>
         <v>50</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>3</v>
-      </c>
-      <c r="J19" s="4">
-        <v>2</v>
       </c>
       <c r="K19" s="4">
         <v>2</v>
       </c>
-      <c r="M19" s="5">
+      <c r="L19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="5">
         <f>E19/3</f>
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>72</v>
       </c>
@@ -5158,36 +5225,40 @@
         <v>46</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" ref="E20:E26" si="5">(H20*I20*J20*K20)*$B$19+F20</f>
+        <f t="shared" ref="E20:E26" si="6">(I20*J20*K20*L20)*$B$19+F20</f>
         <v>150</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" ref="F20:F26" si="6">((H20*I20*J20*K20)/4)*$B$19</f>
+        <f t="shared" ref="F20:F26" si="7">((I20*J20*K20*L20)/4)*$B$19</f>
         <v>30</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="4">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>3</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>2</v>
       </c>
-      <c r="M20" s="5">
-        <f t="shared" ref="M20:M26" si="7">E20/3</f>
+      <c r="N20" s="5">
+        <f t="shared" ref="N20:N26" si="8">E20/3</f>
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
       <c r="C21" s="4" t="s">
         <v>74</v>
       </c>
@@ -5195,36 +5266,40 @@
         <v>45</v>
       </c>
       <c r="E21" s="5">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H21" s="4">
-        <v>2</v>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
       </c>
       <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
         <v>5</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>3</v>
       </c>
-      <c r="M21" s="5">
-        <f t="shared" si="7"/>
+      <c r="N21" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="17"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
       <c r="C22" s="4" t="s">
         <v>75</v>
       </c>
@@ -5232,36 +5307,40 @@
         <v>46</v>
       </c>
       <c r="E22" s="5">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="4">
         <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2</v>
       </c>
       <c r="J22" s="4">
         <v>2</v>
       </c>
       <c r="K22" s="4">
+        <v>2</v>
+      </c>
+      <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" s="5">
-        <f t="shared" si="7"/>
+      <c r="N22" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
         <v>69</v>
       </c>
@@ -5269,36 +5348,40 @@
         <v>47</v>
       </c>
       <c r="E23" s="5">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="F23" s="5">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I23" s="4">
         <v>3</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>5</v>
-      </c>
-      <c r="J23" s="4">
-        <v>2</v>
       </c>
       <c r="K23" s="4">
         <v>2</v>
       </c>
-      <c r="M23" s="5">
-        <f t="shared" si="7"/>
+      <c r="L23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
         <v>76</v>
       </c>
@@ -5306,36 +5389,40 @@
         <v>45</v>
       </c>
       <c r="E24" s="5">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="F24" s="5">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>5</v>
       </c>
-      <c r="K24" s="4">
+      <c r="L24" s="4">
         <v>2</v>
       </c>
-      <c r="M24" s="5">
-        <f t="shared" si="7"/>
+      <c r="N24" s="5">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
@@ -5343,36 +5430,40 @@
         <v>44</v>
       </c>
       <c r="E25" s="5">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I25" s="4">
         <v>4</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
       </c>
       <c r="J25" s="4">
         <v>2</v>
       </c>
       <c r="K25" s="4">
+        <v>2</v>
+      </c>
+      <c r="L25" s="4">
         <v>5</v>
       </c>
-      <c r="M25" s="5">
-        <f t="shared" si="7"/>
+      <c r="N25" s="5">
+        <f t="shared" si="8"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="17"/>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
@@ -5380,50 +5471,55 @@
         <v>47</v>
       </c>
       <c r="E26" s="5">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="F26" s="5">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="4">
         <v>2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="4">
         <v>5</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>4</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="4">
         <v>2</v>
       </c>
-      <c r="M26" s="5">
-        <f t="shared" si="7"/>
+      <c r="N26" s="5">
+        <f t="shared" si="8"/>
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="17">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
         <v>3</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -5433,36 +5529,40 @@
         <v>45</v>
       </c>
       <c r="E28" s="5">
-        <f>(H28*I28*J28*K28)*$B$28+F28</f>
+        <f>(I28*J28*K28*L28)*$B$28+F28</f>
         <v>2160</v>
       </c>
       <c r="F28" s="5">
-        <f>((H28*I28*J28*K28)/4)*$B$28</f>
+        <f>((I28*J28*K28*L28)/4)*$B$28</f>
         <v>432</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G35" si="8">(H28*H28)*2</f>
+        <f t="shared" ref="G28:G35" si="9">(I28*I28)*2</f>
         <v>18</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I28" s="4">
         <v>3</v>
       </c>
-      <c r="I28" s="4">
+      <c r="J28" s="4">
         <v>8</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>6</v>
       </c>
-      <c r="K28" s="4">
+      <c r="L28" s="4">
         <v>4</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <f>E28/3</f>
         <v>720</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>105</v>
       </c>
@@ -5470,36 +5570,40 @@
         <v>46</v>
       </c>
       <c r="E29" s="5">
-        <f t="shared" ref="E29:E35" si="9">(H29*I29*J29*K29)*$B$28+F29</f>
+        <f t="shared" ref="E29:E35" si="10">(I29*J29*K29*L29)*$B$28+F29</f>
         <v>2160</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" ref="F29:F35" si="10">((H29*I29*J29*K29)/4)*$B$28</f>
+        <f t="shared" ref="F29:F35" si="11">((I29*J29*K29*L29)/4)*$B$28</f>
         <v>432</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I29" s="4">
         <v>4</v>
       </c>
-      <c r="I29" s="4">
+      <c r="J29" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>8</v>
       </c>
-      <c r="K29" s="4">
+      <c r="L29" s="4">
         <v>6</v>
       </c>
-      <c r="M29" s="5">
-        <f t="shared" ref="M29:M35" si="11">E29/3</f>
+      <c r="N29" s="5">
+        <f t="shared" ref="N29:N35" si="12">E29/3</f>
         <v>720</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
@@ -5507,36 +5611,40 @@
         <v>47</v>
       </c>
       <c r="E30" s="5">
+        <f t="shared" si="10"/>
+        <v>2160</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="G30" s="8">
         <f t="shared" si="9"/>
-        <v>2160</v>
-      </c>
-      <c r="F30" s="5">
-        <f t="shared" si="10"/>
-        <v>432</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I30" s="4">
         <v>6</v>
       </c>
-      <c r="I30" s="4">
+      <c r="J30" s="4">
         <v>4</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>3</v>
       </c>
-      <c r="K30" s="4">
+      <c r="L30" s="4">
         <v>8</v>
       </c>
-      <c r="M30" s="5">
-        <f t="shared" si="11"/>
+      <c r="N30" s="5">
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="17"/>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
       <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
@@ -5544,36 +5652,40 @@
         <v>44</v>
       </c>
       <c r="E31" s="5">
+        <f t="shared" si="10"/>
+        <v>2160</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="G31" s="8">
         <f t="shared" si="9"/>
-        <v>2160</v>
-      </c>
-      <c r="F31" s="5">
-        <f t="shared" si="10"/>
-        <v>432</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I31" s="4">
         <v>8</v>
       </c>
-      <c r="I31" s="4">
+      <c r="J31" s="4">
         <v>6</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>4</v>
       </c>
-      <c r="K31" s="4">
+      <c r="L31" s="4">
         <v>3</v>
       </c>
-      <c r="M31" s="5">
-        <f t="shared" si="11"/>
+      <c r="N31" s="5">
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
       <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
@@ -5581,36 +5693,40 @@
         <v>45</v>
       </c>
       <c r="E32" s="5">
+        <f t="shared" si="10"/>
+        <v>2520</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="11"/>
+        <v>504</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="9"/>
-        <v>2520</v>
-      </c>
-      <c r="F32" s="5">
-        <f t="shared" si="10"/>
-        <v>504</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="8"/>
         <v>128</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I32" s="4">
         <v>8</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="4">
         <v>7</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>4</v>
       </c>
-      <c r="K32" s="4">
+      <c r="L32" s="4">
         <v>3</v>
       </c>
-      <c r="M32" s="5">
-        <f t="shared" si="11"/>
+      <c r="N32" s="5">
+        <f t="shared" si="12"/>
         <v>840</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="17"/>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
       <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
@@ -5618,36 +5734,40 @@
         <v>47</v>
       </c>
       <c r="E33" s="5">
+        <f t="shared" si="10"/>
+        <v>2520</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="11"/>
+        <v>504</v>
+      </c>
+      <c r="G33" s="8">
         <f t="shared" si="9"/>
-        <v>2520</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="10"/>
-        <v>504</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="I33" s="4">
+      <c r="J33" s="4">
         <v>8</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>3</v>
       </c>
-      <c r="K33" s="4">
+      <c r="L33" s="4">
         <v>4</v>
       </c>
-      <c r="M33" s="5">
-        <f t="shared" si="11"/>
+      <c r="N33" s="5">
+        <f t="shared" si="12"/>
         <v>840</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
       <c r="C34" s="4" t="s">
         <v>90</v>
       </c>
@@ -5655,36 +5775,40 @@
         <v>46</v>
       </c>
       <c r="E34" s="5">
+        <f t="shared" si="10"/>
+        <v>2520</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="11"/>
+        <v>504</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="9"/>
-        <v>2520</v>
-      </c>
-      <c r="F34" s="5">
-        <f t="shared" si="10"/>
-        <v>504</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I34" s="4">
         <v>7</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>3</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>8</v>
       </c>
-      <c r="K34" s="4">
+      <c r="L34" s="4">
         <v>4</v>
       </c>
-      <c r="M34" s="5">
-        <f t="shared" si="11"/>
+      <c r="N34" s="5">
+        <f t="shared" si="12"/>
         <v>840</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="17"/>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
       <c r="C35" s="4" t="s">
         <v>62</v>
       </c>
@@ -5692,50 +5816,55 @@
         <v>44</v>
       </c>
       <c r="E35" s="5">
+        <f t="shared" si="10"/>
+        <v>2520</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="11"/>
+        <v>504</v>
+      </c>
+      <c r="G35" s="8">
         <f t="shared" si="9"/>
-        <v>2520</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="10"/>
-        <v>504</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="I35" s="4">
+      <c r="J35" s="4">
         <v>7</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>4</v>
       </c>
-      <c r="K35" s="4">
+      <c r="L35" s="4">
         <v>8</v>
       </c>
-      <c r="M35" s="5">
-        <f t="shared" si="11"/>
+      <c r="N35" s="5">
+        <f t="shared" si="12"/>
         <v>840</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="17">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="13">
         <v>4</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -5745,36 +5874,40 @@
         <v>46</v>
       </c>
       <c r="E37" s="5">
-        <f>(H37*I37*J37*K37)*$B$37+F37</f>
+        <f>(I37*J37*K37*L37)*$B$37+F37</f>
         <v>7000</v>
       </c>
       <c r="F37" s="5">
-        <f>((H37*I37*J37*K37)/4)*$B$37</f>
+        <f>((I37*J37*K37*L37)/4)*$B$37</f>
         <v>1400</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" ref="G37:G44" si="12">(H37*H37)*2</f>
+        <f t="shared" ref="G37:G44" si="13">(I37*I37)*2</f>
         <v>200</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I37" s="4">
         <v>10</v>
       </c>
-      <c r="I37" s="4">
+      <c r="J37" s="4">
         <v>4</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>5</v>
       </c>
-      <c r="K37" s="4">
+      <c r="L37" s="4">
         <v>7</v>
       </c>
-      <c r="M37" s="5">
+      <c r="N37" s="5">
         <f>E37/3</f>
         <v>2333.3333333333335</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
       <c r="C38" s="4" t="s">
         <v>93</v>
       </c>
@@ -5782,36 +5915,40 @@
         <v>47</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ref="E38:E44" si="13">(H38*I38*J38*K38)*$B$37+F38</f>
+        <f t="shared" ref="E38:E44" si="14">(I38*J38*K38*L38)*$B$37+F38</f>
         <v>7000</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:F44" si="14">((H38*I38*J38*K38)/4)*$B$37</f>
+        <f t="shared" ref="F38:F44" si="15">((I38*J38*K38*L38)/4)*$B$37</f>
         <v>1400</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>98</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I38" s="4">
         <v>7</v>
       </c>
-      <c r="I38" s="4">
+      <c r="J38" s="4">
         <v>10</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>4</v>
       </c>
-      <c r="K38" s="4">
+      <c r="L38" s="4">
         <v>5</v>
       </c>
-      <c r="M38" s="5">
-        <f t="shared" ref="M38:M44" si="15">E38/3</f>
+      <c r="N38" s="5">
+        <f t="shared" ref="N38:N44" si="16">E38/3</f>
         <v>2333.3333333333335</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
       <c r="C39" s="4" t="s">
         <v>94</v>
       </c>
@@ -5819,36 +5956,40 @@
         <v>45</v>
       </c>
       <c r="E39" s="5">
+        <f t="shared" si="14"/>
+        <v>7000</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+      <c r="G39" s="8">
         <f t="shared" si="13"/>
-        <v>7000</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="14"/>
-        <v>1400</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="7">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I39" s="4">
         <v>5</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>7</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>10</v>
       </c>
-      <c r="K39" s="4">
+      <c r="L39" s="4">
         <v>4</v>
       </c>
-      <c r="M39" s="5">
-        <f t="shared" si="15"/>
+      <c r="N39" s="5">
+        <f t="shared" si="16"/>
         <v>2333.3333333333335</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
       <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
@@ -5856,36 +5997,40 @@
         <v>44</v>
       </c>
       <c r="E40" s="5">
+        <f t="shared" si="14"/>
+        <v>7000</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="15"/>
+        <v>1400</v>
+      </c>
+      <c r="G40" s="8">
         <f t="shared" si="13"/>
-        <v>7000</v>
-      </c>
-      <c r="F40" s="5">
-        <f t="shared" si="14"/>
-        <v>1400</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="12"/>
         <v>32</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="I40" s="4">
+      <c r="J40" s="4">
         <v>5</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>7</v>
       </c>
-      <c r="K40" s="4">
+      <c r="L40" s="4">
         <v>10</v>
       </c>
-      <c r="M40" s="5">
-        <f t="shared" si="15"/>
+      <c r="N40" s="5">
+        <f t="shared" si="16"/>
         <v>2333.3333333333335</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
       <c r="C41" s="4" t="s">
         <v>95</v>
       </c>
@@ -5893,36 +6038,40 @@
         <v>46</v>
       </c>
       <c r="E41" s="5">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+      <c r="G41" s="8">
         <f t="shared" si="13"/>
-        <v>9600</v>
-      </c>
-      <c r="F41" s="5">
-        <f t="shared" si="14"/>
-        <v>1920</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I41" s="4">
         <v>8</v>
       </c>
-      <c r="I41" s="4">
+      <c r="J41" s="4">
         <v>6</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>10</v>
       </c>
-      <c r="K41" s="4">
+      <c r="L41" s="4">
         <v>4</v>
       </c>
-      <c r="M41" s="5">
-        <f t="shared" si="15"/>
+      <c r="N41" s="5">
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
       <c r="C42" s="4" t="s">
         <v>96</v>
       </c>
@@ -5930,36 +6079,40 @@
         <v>47</v>
       </c>
       <c r="E42" s="5">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+      <c r="G42" s="8">
         <f t="shared" si="13"/>
-        <v>9600</v>
-      </c>
-      <c r="F42" s="5">
-        <f t="shared" si="14"/>
-        <v>1920</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="12"/>
         <v>72</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I42" s="4">
         <v>6</v>
       </c>
-      <c r="I42" s="4">
+      <c r="J42" s="4">
         <v>10</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>4</v>
       </c>
-      <c r="K42" s="4">
+      <c r="L42" s="4">
         <v>8</v>
       </c>
-      <c r="M42" s="5">
-        <f t="shared" si="15"/>
+      <c r="N42" s="5">
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="17"/>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
       <c r="C43" s="4" t="s">
         <v>97</v>
       </c>
@@ -5967,36 +6120,40 @@
         <v>44</v>
       </c>
       <c r="E43" s="5">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+      <c r="G43" s="8">
         <f t="shared" si="13"/>
-        <v>9600</v>
-      </c>
-      <c r="F43" s="5">
-        <f t="shared" si="14"/>
-        <v>1920</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I43" s="4">
         <v>8</v>
       </c>
-      <c r="I43" s="4">
+      <c r="J43" s="4">
         <v>4</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>10</v>
       </c>
-      <c r="K43" s="4">
+      <c r="L43" s="4">
         <v>6</v>
       </c>
-      <c r="M43" s="5">
-        <f t="shared" si="15"/>
+      <c r="N43" s="5">
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
       <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
@@ -6004,50 +6161,55 @@
         <v>45</v>
       </c>
       <c r="E44" s="5">
+        <f t="shared" si="14"/>
+        <v>9600</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="15"/>
+        <v>1920</v>
+      </c>
+      <c r="G44" s="8">
         <f t="shared" si="13"/>
-        <v>9600</v>
-      </c>
-      <c r="F44" s="5">
-        <f t="shared" si="14"/>
-        <v>1920</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I44" s="4">
         <v>10</v>
       </c>
-      <c r="I44" s="4">
+      <c r="J44" s="4">
         <v>4</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>6</v>
       </c>
-      <c r="K44" s="4">
+      <c r="L44" s="4">
         <v>8</v>
       </c>
-      <c r="M44" s="5">
-        <f t="shared" si="15"/>
+      <c r="N44" s="5">
+        <f t="shared" si="16"/>
         <v>3200</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="17">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="13">
         <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -6057,36 +6219,40 @@
         <v>47</v>
       </c>
       <c r="E46" s="5">
-        <f>(H46*I46*J46*K46)*$B$46+F46</f>
+        <f>(I46*J46*K46*L46)*$B$46+F46</f>
         <v>21000</v>
       </c>
       <c r="F46" s="5">
-        <f>((H46*I46*J46*K46)/4)*$B$46</f>
+        <f>((I46*J46*K46*L46)/4)*$B$46</f>
         <v>4200</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" ref="G46:G53" si="16">(H46*H46)*2</f>
+        <f t="shared" ref="G46:G53" si="17">(I46*I46)*2</f>
         <v>200</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I46" s="4">
         <v>10</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>7</v>
       </c>
-      <c r="J46" s="4">
+      <c r="K46" s="4">
         <v>8</v>
       </c>
-      <c r="K46" s="4">
+      <c r="L46" s="4">
         <v>6</v>
       </c>
-      <c r="M46" s="5">
+      <c r="N46" s="5">
         <f>E46/3</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
         <v>88</v>
       </c>
@@ -6094,36 +6260,40 @@
         <v>44</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" ref="E47:E53" si="17">(H47*I47*J47*K47)*$B$46+F47</f>
+        <f t="shared" ref="E47:E53" si="18">(I47*J47*K47*L47)*$B$46+F47</f>
         <v>21000</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" ref="F47:F53" si="18">((H47*I47*J47*K47)/4)*$B$46</f>
+        <f t="shared" ref="F47:F53" si="19">((I47*J47*K47*L47)/4)*$B$46</f>
         <v>4200</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>128</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I47" s="4">
         <v>8</v>
       </c>
-      <c r="I47" s="4">
+      <c r="J47" s="4">
         <v>10</v>
       </c>
-      <c r="J47" s="4">
+      <c r="K47" s="4">
         <v>6</v>
       </c>
-      <c r="K47" s="4">
+      <c r="L47" s="4">
         <v>7</v>
       </c>
-      <c r="M47" s="5">
-        <f t="shared" ref="M47:M53" si="19">E47/3</f>
+      <c r="N47" s="5">
+        <f t="shared" ref="N47:N53" si="20">E47/3</f>
         <v>7000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="17"/>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="13"/>
       <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
@@ -6131,36 +6301,40 @@
         <v>46</v>
       </c>
       <c r="E48" s="5">
+        <f t="shared" si="18"/>
+        <v>21000</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="19"/>
+        <v>4200</v>
+      </c>
+      <c r="G48" s="8">
         <f t="shared" si="17"/>
-        <v>21000</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="18"/>
-        <v>4200</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="16"/>
         <v>98</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I48" s="4">
         <v>7</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>6</v>
       </c>
-      <c r="J48" s="4">
+      <c r="K48" s="4">
         <v>10</v>
       </c>
-      <c r="K48" s="4">
+      <c r="L48" s="4">
         <v>8</v>
       </c>
-      <c r="M48" s="5">
-        <f t="shared" si="19"/>
+      <c r="N48" s="5">
+        <f t="shared" si="20"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="17"/>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="13"/>
       <c r="C49" s="4" t="s">
         <v>100</v>
       </c>
@@ -6168,36 +6342,40 @@
         <v>45</v>
       </c>
       <c r="E49" s="5">
+        <f t="shared" si="18"/>
+        <v>21000</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="19"/>
+        <v>4200</v>
+      </c>
+      <c r="G49" s="8">
         <f t="shared" si="17"/>
-        <v>21000</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="18"/>
-        <v>4200</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="16"/>
         <v>72</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I49" s="4">
         <v>6</v>
       </c>
-      <c r="I49" s="4">
+      <c r="J49" s="4">
         <v>8</v>
       </c>
-      <c r="J49" s="4">
+      <c r="K49" s="4">
         <v>7</v>
       </c>
-      <c r="K49" s="4">
+      <c r="L49" s="4">
         <v>10</v>
       </c>
-      <c r="M49" s="5">
-        <f t="shared" si="19"/>
+      <c r="N49" s="5">
+        <f t="shared" si="20"/>
         <v>7000</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="17"/>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="13"/>
       <c r="C50" s="4" t="s">
         <v>101</v>
       </c>
@@ -6205,36 +6383,40 @@
         <v>44</v>
       </c>
       <c r="E50" s="5">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="19"/>
+        <v>5400</v>
+      </c>
+      <c r="G50" s="8">
         <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="18"/>
-        <v>5400</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="16"/>
         <v>128</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="7">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="I50" s="4">
         <v>8</v>
       </c>
-      <c r="I50" s="4">
+      <c r="J50" s="4">
         <v>6</v>
       </c>
-      <c r="J50" s="4">
+      <c r="K50" s="4">
         <v>10</v>
       </c>
-      <c r="K50" s="4">
+      <c r="L50" s="4">
         <v>9</v>
       </c>
-      <c r="M50" s="5">
-        <f t="shared" si="19"/>
+      <c r="N50" s="5">
+        <f t="shared" si="20"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="17"/>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="13"/>
       <c r="C51" s="4" t="s">
         <v>102</v>
       </c>
@@ -6242,36 +6424,40 @@
         <v>45</v>
       </c>
       <c r="E51" s="5">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="19"/>
+        <v>5400</v>
+      </c>
+      <c r="G51" s="8">
         <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="18"/>
-        <v>5400</v>
-      </c>
-      <c r="G51" s="8">
-        <f t="shared" si="16"/>
         <v>162</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="7">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="I51" s="4">
         <v>9</v>
       </c>
-      <c r="I51" s="4">
+      <c r="J51" s="4">
         <v>10</v>
       </c>
-      <c r="J51" s="4">
+      <c r="K51" s="4">
         <v>6</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>8</v>
       </c>
-      <c r="M51" s="5">
-        <f t="shared" si="19"/>
+      <c r="N51" s="5">
+        <f t="shared" si="20"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="17"/>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
@@ -6279,36 +6465,40 @@
         <v>47</v>
       </c>
       <c r="E52" s="5">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="19"/>
+        <v>5400</v>
+      </c>
+      <c r="G52" s="8">
         <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="F52" s="5">
-        <f t="shared" si="18"/>
-        <v>5400</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="16"/>
         <v>200</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I52" s="4">
         <v>10</v>
       </c>
-      <c r="I52" s="4">
+      <c r="J52" s="4">
         <v>8</v>
       </c>
-      <c r="J52" s="4">
+      <c r="K52" s="4">
         <v>9</v>
       </c>
-      <c r="K52" s="4">
+      <c r="L52" s="4">
         <v>6</v>
       </c>
-      <c r="M52" s="5">
-        <f t="shared" si="19"/>
+      <c r="N52" s="5">
+        <f t="shared" si="20"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
         <v>104</v>
       </c>
@@ -6316,50 +6506,55 @@
         <v>46</v>
       </c>
       <c r="E53" s="5">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="19"/>
+        <v>5400</v>
+      </c>
+      <c r="G53" s="8">
         <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="18"/>
-        <v>5400</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="16"/>
         <v>72</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I53" s="4">
         <v>6</v>
       </c>
-      <c r="I53" s="4">
+      <c r="J53" s="4">
         <v>9</v>
       </c>
-      <c r="J53" s="4">
+      <c r="K53" s="4">
         <v>8</v>
       </c>
-      <c r="K53" s="4">
+      <c r="L53" s="4">
         <v>10</v>
       </c>
-      <c r="M53" s="5">
-        <f t="shared" si="19"/>
+      <c r="N53" s="5">
+        <f t="shared" si="20"/>
         <v>9000</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="17" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -6369,22 +6564,23 @@
         <v>47</v>
       </c>
       <c r="E55" s="5">
-        <f>(H55*I55*J55*K55)*$B$59+F55</f>
+        <f>(I55*J55*K55*L55)*$B$59+F55</f>
         <v>112500</v>
       </c>
       <c r="F55" s="5">
-        <f>((H55*I55*J55*K55)/4)*$B$59</f>
+        <f>((I55*J55*K55*L55)/4)*$B$59</f>
         <v>22500</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" ref="G55:G58" si="20">(H55*H55)*2</f>
+        <f t="shared" ref="G55:G58" si="21">(I55*I55)*2</f>
         <v>162</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="7">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="I55" s="4">
         <v>9</v>
-      </c>
-      <c r="I55" s="4">
-        <v>10</v>
       </c>
       <c r="J55" s="4">
         <v>10</v>
@@ -6392,13 +6588,16 @@
       <c r="K55" s="4">
         <v>10</v>
       </c>
-      <c r="M55" s="5">
+      <c r="L55" s="4">
+        <v>10</v>
+      </c>
+      <c r="N55" s="5">
         <f>E55/3</f>
         <v>37500</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="13"/>
       <c r="C56" s="4" t="s">
         <v>83</v>
       </c>
@@ -6406,36 +6605,40 @@
         <v>45</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" ref="E56:E59" si="21">(H56*I56*J56*K56)*$B$59+F56</f>
+        <f t="shared" ref="E56:E59" si="22">(I56*J56*K56*L56)*$B$59+F56</f>
         <v>112500</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" ref="F56:F59" si="22">((H56*I56*J56*K56)/4)*$B$59</f>
+        <f t="shared" ref="F56:F59" si="23">((I56*J56*K56*L56)/4)*$B$59</f>
         <v>22500</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>200</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I56" s="4">
         <v>10</v>
       </c>
-      <c r="I56" s="4">
+      <c r="J56" s="4">
         <v>9</v>
-      </c>
-      <c r="J56" s="4">
-        <v>10</v>
       </c>
       <c r="K56" s="4">
         <v>10</v>
       </c>
-      <c r="M56" s="5">
-        <f t="shared" ref="M56:M59" si="23">E56/3</f>
+      <c r="L56" s="4">
+        <v>10</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" ref="N56:N59" si="24">E56/3</f>
         <v>37500</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="17"/>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="13"/>
       <c r="C57" s="4" t="s">
         <v>85</v>
       </c>
@@ -6443,36 +6646,40 @@
         <v>46</v>
       </c>
       <c r="E57" s="5">
+        <f t="shared" si="22"/>
+        <v>112500</v>
+      </c>
+      <c r="F57" s="5">
+        <f t="shared" si="23"/>
+        <v>22500</v>
+      </c>
+      <c r="G57" s="8">
         <f t="shared" si="21"/>
-        <v>112500</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="22"/>
-        <v>22500</v>
-      </c>
-      <c r="G57" s="8">
-        <f t="shared" si="20"/>
         <v>200</v>
       </c>
-      <c r="H57" s="4">
-        <v>10</v>
+      <c r="H57" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I57" s="4">
         <v>10</v>
       </c>
       <c r="J57" s="4">
+        <v>10</v>
+      </c>
+      <c r="K57" s="4">
         <v>9</v>
       </c>
-      <c r="K57" s="4">
+      <c r="L57" s="4">
         <v>10</v>
       </c>
-      <c r="M57" s="5">
-        <f t="shared" si="23"/>
+      <c r="N57" s="5">
+        <f t="shared" si="24"/>
         <v>37500</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="17"/>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58" s="13"/>
       <c r="C58" s="4" t="s">
         <v>87</v>
       </c>
@@ -6480,19 +6687,20 @@
         <v>44</v>
       </c>
       <c r="E58" s="5">
+        <f t="shared" si="22"/>
+        <v>112500</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="23"/>
+        <v>22500</v>
+      </c>
+      <c r="G58" s="8">
         <f t="shared" si="21"/>
-        <v>112500</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="22"/>
-        <v>22500</v>
-      </c>
-      <c r="G58" s="8">
-        <f t="shared" si="20"/>
         <v>200</v>
       </c>
-      <c r="H58" s="4">
-        <v>10</v>
+      <c r="H58" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I58" s="4">
         <v>10</v>
@@ -6501,14 +6709,17 @@
         <v>10</v>
       </c>
       <c r="K58" s="4">
+        <v>10</v>
+      </c>
+      <c r="L58" s="4">
         <v>9</v>
       </c>
-      <c r="M58" s="5">
-        <f t="shared" si="23"/>
+      <c r="N58" s="5">
+        <f t="shared" si="24"/>
         <v>37500</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="4">
         <v>10</v>
       </c>
@@ -6519,19 +6730,20 @@
         <v>48</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>125000</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>25000</v>
       </c>
       <c r="G59" s="8">
-        <f>(H59*H59)*2</f>
+        <f>(I59*I59)*2</f>
         <v>200</v>
       </c>
-      <c r="H59" s="4">
-        <v>10</v>
+      <c r="H59" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="I59" s="4">
         <v>10</v>
@@ -6542,44 +6754,48 @@
       <c r="K59" s="4">
         <v>10</v>
       </c>
-      <c r="M59" s="5">
-        <f t="shared" si="23"/>
+      <c r="L59" s="4">
+        <v>10</v>
+      </c>
+      <c r="N59" s="5">
+        <f t="shared" si="24"/>
         <v>41666.666666666664</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B60:M60"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="B18:N18"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="B36:N36"/>
+    <mergeCell ref="B60:N60"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="B4:N4"/>
     <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B54:M54"/>
+    <mergeCell ref="B54:N54"/>
     <mergeCell ref="B10:B17"/>
     <mergeCell ref="B19:B26"/>
     <mergeCell ref="B28:B35"/>
     <mergeCell ref="B37:B44"/>
     <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B45:M45"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B27:M27"/>
-    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="B45:N45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6599,19 +6815,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -7439,19 +7655,19 @@
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
